--- a/Dokumentation/Variantenbildung_vorlaeufig.xlsx
+++ b/Dokumentation/Variantenbildung_vorlaeufig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Startklar\Documents\GitHub\T1_TableCast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DerAn\Documents\GitHub\T1_TableCast\Dokumentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DC2997-A744-40A1-B10D-5D97D5DE2599}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA37277-94D8-4ADD-80AC-5225BC9ECB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{41A27454-0F97-40D3-8ED4-A8E588940F79}"/>
+    <workbookView xWindow="0" yWindow="585" windowWidth="28800" windowHeight="15615" xr2:uid="{41A27454-0F97-40D3-8ED4-A8E588940F79}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Programmiersprache</t>
   </si>
@@ -53,15 +53,6 @@
     <t>Möglichkeiten</t>
   </si>
   <si>
-    <t>React</t>
-  </si>
-  <si>
-    <t>Angular</t>
-  </si>
-  <si>
-    <t>CSS + Bootstrap</t>
-  </si>
-  <si>
     <t>Java</t>
   </si>
   <si>
@@ -80,25 +71,25 @@
     <t>.data</t>
   </si>
   <si>
-    <t>JavaScript</t>
-  </si>
-  <si>
-    <t>TypeScript</t>
-  </si>
-  <si>
-    <t>Spring</t>
-  </si>
-  <si>
-    <t>&gt; Java weil Vorlieben</t>
-  </si>
-  <si>
-    <t>&gt; CSS + Bootstrap weil bereits bekannt</t>
-  </si>
-  <si>
     <t>&gt; .JSON weil am vielseitigsten</t>
   </si>
   <si>
-    <t>&gt; JavaScript weil am besten bekannt</t>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Flask</t>
+  </si>
+  <si>
+    <t>Blazor</t>
+  </si>
+  <si>
+    <t>&gt; Python weil die gegebenen Skripts in Python sind</t>
+  </si>
+  <si>
+    <t>&gt; Flask weil es das meist benutzte Python Framework ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -131,13 +122,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,17 +259,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -288,8 +279,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -607,16 +597,16 @@
   <dimension ref="A2:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" customWidth="1"/>
     <col min="2" max="4" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
         <v>4</v>
@@ -624,72 +614,72 @@
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
